--- a/Machine_Import_data.xlsx
+++ b/Machine_Import_data.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurchan/Downloads/Sample/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ArthurChan\Data\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E17802C-5675-0C45-91E4-F79266E6966B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79058CBC-6191-462B-9712-08120DC0AEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29980" yWindow="11280" windowWidth="26760" windowHeight="16180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mounter_全国年度进口图" sheetId="1" r:id="rId1"/>
     <sheet name="Mounter_地区年度进口图" sheetId="5" r:id="rId2"/>
-    <sheet name="raw data" sheetId="2" r:id="rId3"/>
-    <sheet name="raw data_Region" sheetId="3" r:id="rId4"/>
+    <sheet name="raw data" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="raw data_Region" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Slicer_数据年">#N/A</definedName>
     <definedName name="Slicer_数据年1">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" iterate="1"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId5"/>
-    <pivotCache cacheId="8" r:id="rId6"/>
+    <pivotCache cacheId="48" r:id="rId5"/>
+    <pivotCache cacheId="49" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="86">
   <si>
     <t>查询网址：http://stats.customs.gov.cn/</t>
   </si>
@@ -349,22 +349,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -373,7 +373,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -381,20 +381,20 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -403,14 +403,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -418,7 +418,7 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -553,7 +553,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -561,7 +561,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -578,20 +578,20 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -600,45 +600,45 @@
     <xf numFmtId="14" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="千分位" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -656,7 +656,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -709,7 +709,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="180" formatCode="yyyy/m/d"/>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -798,7 +798,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
       <font>
@@ -1398,7 +1398,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1409,7 +1409,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Machine_Import_data.xlsx]raw data!PivotTable7</c:name>
+    <c:name>[Machine Import data.xlsx]raw data!PivotTable7</c:name>
     <c:fmtId val="52"/>
   </c:pivotSource>
   <c:chart>
@@ -1529,7 +1529,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1610,7 +1610,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1691,7 +1691,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1756,7 +1756,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1821,7 +1821,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1886,7 +1886,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2011,7 +2011,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2076,7 +2076,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2135,7 +2135,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2200,7 +2200,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2259,7 +2259,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2324,7 +2324,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2446,7 +2446,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2508,7 +2508,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2564,7 +2564,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2626,7 +2626,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2682,7 +2682,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2744,7 +2744,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2873,7 +2873,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2923,7 +2923,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2979,7 +2979,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3029,7 +3029,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3085,7 +3085,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3135,7 +3135,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3185,7 +3185,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3235,7 +3235,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3285,7 +3285,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3347,7 +3347,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3397,7 +3397,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3447,7 +3447,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3497,7 +3497,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3615,7 +3615,7 @@
               <a:pPr>
                 <a:defRPr/>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3676,7 +3676,7 @@
               <a:pPr>
                 <a:defRPr/>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3737,7 +3737,7 @@
               <a:pPr>
                 <a:defRPr/>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3844,7 +3844,7 @@
               <a:pPr>
                 <a:defRPr sz="1600" b="1"/>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3897,7 +3897,7 @@
               <a:pPr>
                 <a:defRPr sz="1600" b="1"/>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3950,7 +3950,7 @@
               <a:pPr>
                 <a:defRPr sz="1600" b="1"/>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3990,7 +3990,7 @@
               <a:pPr>
                 <a:defRPr sz="1600" b="1"/>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4030,7 +4030,7 @@
               <a:pPr>
                 <a:defRPr sz="1600" b="1"/>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4070,7 +4070,7 @@
               <a:pPr>
                 <a:defRPr sz="1600" b="1"/>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4110,7 +4110,7 @@
               <a:pPr>
                 <a:defRPr sz="1600" b="1"/>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4150,7 +4150,7 @@
               <a:pPr>
                 <a:defRPr sz="1600" b="1"/>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4190,7 +4190,7 @@
               <a:pPr>
                 <a:defRPr sz="1600" b="1"/>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4281,7 +4281,31 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:delete val="1"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
@@ -4310,7 +4334,31 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:delete val="1"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
@@ -4336,7 +4384,111 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:delete val="1"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="77"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="-1.1114324138449223E-2"/>
+              <c:y val="1.3246988633287226E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="78"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="-1.5877605912070318E-3"/>
+              <c:y val="-1.9268347102963282E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
@@ -4658,6 +4810,9 @@
                 <c:pt idx="2">
                   <c:v>790478375</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>987977571</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4715,6 +4870,39 @@
               </a:ln>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'raw data'!$I$4:$I$16</c:f>
@@ -4844,6 +5032,60 @@
               </a:ln>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.5877605912070318E-3"/>
+                  <c:y val="-1.9268347102963282E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-5D39-45C1-B89C-524CD6DBD8D1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'raw data'!$I$4:$I$16</c:f>
@@ -4979,6 +5221,60 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.1114324138449223E-2"/>
+                  <c:y val="1.3246988633287226E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-5D39-45C1-B89C-524CD6DBD8D1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'raw data'!$I$4:$I$16</c:f>
@@ -5037,6 +5333,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1067</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1307</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5103,7 +5402,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-HK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="277059583"/>
@@ -5149,7 +5448,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-HK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="83166095"/>
@@ -5191,7 +5490,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-HK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="83158895"/>
@@ -5251,7 +5550,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-HK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -5268,7 +5567,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-HK"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5296,7 +5595,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5307,7 +5606,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Machine_Import_data.xlsx]raw data_Region!樞紐分析表2</c:name>
+    <c:name>[Machine Import data.xlsx]raw data_Region!樞紐分析表2</c:name>
     <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
@@ -5795,7 +6094,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -5851,7 +6150,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -5907,7 +6206,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -5963,7 +6262,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -6019,7 +6318,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -6075,7 +6374,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -6131,7 +6430,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -6187,7 +6486,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -6243,7 +6542,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -6299,7 +6598,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -6355,7 +6654,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -6411,7 +6710,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -6467,7 +6766,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -6523,7 +6822,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -6579,7 +6878,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -6625,7 +6924,7 @@
               <a:pPr>
                 <a:defRPr sz="1800" b="1"/>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -6671,7 +6970,7 @@
               <a:pPr>
                 <a:defRPr sz="1800" b="1"/>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -6717,7 +7016,7 @@
               <a:pPr>
                 <a:defRPr sz="1800" b="1"/>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -6763,7 +7062,7 @@
               <a:pPr>
                 <a:defRPr sz="1800" b="1"/>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -6811,7 +7110,7 @@
               <a:pPr>
                 <a:defRPr sz="1800" b="1"/>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -6873,7 +7172,7 @@
                 <a:pPr>
                   <a:defRPr sz="1800" b="1"/>
                 </a:pPr>
-                <a:endParaRPr lang="zh-HK"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -6989,7 +7288,7 @@
                 <a:pPr>
                   <a:defRPr sz="1800" b="1"/>
                 </a:pPr>
-                <a:endParaRPr lang="zh-HK"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -7105,7 +7404,7 @@
                 <a:pPr>
                   <a:defRPr sz="1800" b="1"/>
                 </a:pPr>
-                <a:endParaRPr lang="zh-HK"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -7221,7 +7520,7 @@
                 <a:pPr>
                   <a:defRPr sz="1800" b="1"/>
                 </a:pPr>
-                <a:endParaRPr lang="zh-HK"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -7339,7 +7638,7 @@
                 <a:pPr>
                   <a:defRPr sz="1800" b="1"/>
                 </a:pPr>
-                <a:endParaRPr lang="zh-HK"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -7474,7 +7773,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-HK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="778256304"/>
@@ -7519,7 +7818,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-HK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="747701392"/>
@@ -7572,7 +7871,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-HK"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7594,7 +7893,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-HK"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7615,7 +7914,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7626,7 +7925,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Machine_Import_data.xlsx]raw data_Region!樞紐分析表5</c:name>
+    <c:name>[Machine Import data.xlsx]raw data_Region!樞紐分析表5</c:name>
     <c:fmtId val="13"/>
   </c:pivotSource>
   <c:chart>
@@ -7674,7 +7973,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -7730,7 +8029,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -7786,7 +8085,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -7842,7 +8141,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -7898,7 +8197,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -7954,7 +8253,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -8010,7 +8309,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -8066,7 +8365,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -8122,7 +8421,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -8178,7 +8477,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -8234,7 +8533,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -8290,7 +8589,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -8346,7 +8645,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -8402,7 +8701,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -8458,7 +8757,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -8514,7 +8813,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -8570,7 +8869,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -8626,7 +8925,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -8682,7 +8981,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -8738,7 +9037,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -8794,7 +9093,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -8850,7 +9149,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -8906,7 +9205,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -8962,7 +9261,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -9018,7 +9317,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -9074,7 +9373,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -9131,7 +9430,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="outEnd"/>
@@ -9188,7 +9487,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="outEnd"/>
@@ -9245,7 +9544,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="outEnd"/>
@@ -9304,7 +9603,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="outEnd"/>
@@ -9361,7 +9660,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="outEnd"/>
@@ -9418,7 +9717,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="outEnd"/>
@@ -9475,7 +9774,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="outEnd"/>
@@ -9532,7 +9831,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="outEnd"/>
@@ -9589,7 +9888,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="outEnd"/>
@@ -9646,7 +9945,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="outEnd"/>
@@ -9703,7 +10002,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="outEnd"/>
@@ -9760,7 +10059,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="outEnd"/>
@@ -9817,7 +10116,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="outEnd"/>
@@ -9876,7 +10175,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="outEnd"/>
@@ -9960,7 +10259,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-HK"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -10087,7 +10386,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-HK"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -10214,7 +10513,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-HK"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -10343,7 +10642,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-HK"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -10467,7 +10766,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-HK"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -10596,7 +10895,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-HK"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -10722,7 +11021,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-HK"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -10851,7 +11150,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-HK"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -10980,7 +11279,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-HK"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -11109,7 +11408,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-HK"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -11238,7 +11537,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-HK"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -11367,7 +11666,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-HK"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -11497,7 +11796,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-HK"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -11627,7 +11926,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-HK"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -11767,7 +12066,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-HK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1528177408"/>
@@ -11841,7 +12140,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-HK"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11871,7 +12170,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-HK"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11900,7 +12199,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11911,7 +12210,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Machine_Import_data.xlsx]raw data_Region!樞紐分析表4</c:name>
+    <c:name>[Machine Import data.xlsx]raw data_Region!樞紐分析表4</c:name>
     <c:fmtId val="15"/>
   </c:pivotSource>
   <c:chart>
@@ -11956,7 +12255,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="1"/>
@@ -12009,7 +12308,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="1"/>
@@ -12126,7 +12425,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -12246,7 +12545,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -12332,7 +12631,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -12434,7 +12733,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>合計</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12601,7 +12900,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-HK"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -12743,7 +13042,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-HK"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12773,7 +13072,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-HK"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12801,7 +13100,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12812,7 +13111,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Machine_Import_data.xlsx]raw data_Region!樞紐分析表7</c:name>
+    <c:name>[Machine Import data.xlsx]raw data_Region!樞紐分析表7</c:name>
     <c:fmtId val="13"/>
   </c:pivotSource>
   <c:chart>
@@ -12862,7 +13161,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -12920,7 +13219,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -13161,7 +13460,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-HK"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="bestFit"/>
@@ -13640,7 +13939,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>合計</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13950,7 +14249,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-HK"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="bestFit"/>
@@ -14134,7 +14433,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-HK"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -14164,7 +14463,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-HK"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -15840,15 +16139,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>88901</xdr:rowOff>
+      <xdr:rowOff>24507</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>91967</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>52553</xdr:rowOff>
+      <xdr:colOff>91966</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>170610</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17097,12 +17396,12 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ArthurChan" refreshedDate="45420.599551851854" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="26" xr:uid="{307037F0-6138-0347-A69C-EB923C7D0537}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ArthurChan" refreshedDate="45433.605701967594" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="26" xr:uid="{307037F0-6138-0347-A69C-EB923C7D0537}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:E27" sheet="raw data_Region"/>
   </cacheSource>
   <cacheFields count="5">
-    <cacheField name="数据年" numFmtId="179">
+    <cacheField name="数据年" numFmtId="166">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2022" maxValue="2023" count="2">
         <n v="2023"/>
         <n v="2022"/>
@@ -17153,11 +17452,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ArthurChan" refreshedDate="45420.599554050925" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="27" xr:uid="{46C3B069-3CF6-460D-ACAF-0F80FC0BC90A}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ArthurChan" refreshedDate="45433.605702546294" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="28" xr:uid="{46C3B069-3CF6-460D-ACAF-0F80FC0BC90A}">
   <cacheSource type="worksheet">
     <worksheetSource name="表1"/>
   </cacheSource>
-  <cacheFields count="7">
+  <cacheFields count="9">
     <cacheField name="数据年月" numFmtId="14">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2022-01-01T00:00:00" maxDate="2024-12-02T00:00:00" count="36">
         <d v="2022-01-01T00:00:00"/>
@@ -17187,7 +17486,7 @@
         <d v="2024-01-01T00:00:00"/>
         <d v="2024-02-01T00:00:00"/>
         <d v="2024-03-01T00:00:00"/>
-        <d v="2024-04-01T00:00:00" u="1"/>
+        <d v="2024-04-01T00:00:00"/>
         <d v="2024-05-01T00:00:00" u="1"/>
         <d v="2024-06-01T00:00:00" u="1"/>
         <d v="2024-07-01T00:00:00" u="1"/>
@@ -17197,7 +17496,7 @@
         <d v="2024-11-01T00:00:00" u="1"/>
         <d v="2024-12-01T00:00:00" u="1"/>
       </sharedItems>
-      <fieldGroup par="6"/>
+      <fieldGroup par="8"/>
     </cacheField>
     <cacheField name="商品编码" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="84798962" maxValue="84798962"/>
@@ -17205,15 +17504,21 @@
     <cacheField name="商品名称" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="台数" numFmtId="178">
+    <cacheField name="台数" numFmtId="165">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="545" maxValue="1813"/>
     </cacheField>
     <cacheField name="进口金额（人民币）" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="425456191" maxValue="1582113796"/>
     </cacheField>
+    <cacheField name="YEAR" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2022" maxValue="2024"/>
+    </cacheField>
+    <cacheField name="MONTH" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="12"/>
+    </cacheField>
     <cacheField name="Months (数据年月)" numFmtId="0" databaseField="0">
       <fieldGroup base="0">
-        <rangePr groupBy="months" startDate="2022-01-01T00:00:00" endDate="2024-03-02T00:00:00"/>
+        <rangePr groupBy="months" startDate="2022-01-01T00:00:00" endDate="2024-04-02T00:00:00"/>
         <groupItems count="14">
           <s v="&lt;2022/1/1"/>
           <s v="一月"/>
@@ -17228,19 +17533,19 @@
           <s v="十月"/>
           <s v="十一月"/>
           <s v="十二月"/>
-          <s v="&gt;2024/3/2"/>
+          <s v="&gt;2024/4/2"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
     <cacheField name="Years (数据年月)" numFmtId="0" databaseField="0">
       <fieldGroup base="0">
-        <rangePr groupBy="years" startDate="2022-01-01T00:00:00" endDate="2024-03-02T00:00:00"/>
+        <rangePr groupBy="years" startDate="2022-01-01T00:00:00" endDate="2024-04-02T00:00:00"/>
         <groupItems count="5">
           <s v="&lt;2022/1/1"/>
           <s v="2022"/>
           <s v="2023"/>
           <s v="2024"/>
-          <s v="&gt;2024/3/2"/>
+          <s v="&gt;2024/4/2"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
@@ -17441,13 +17746,15 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="27">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="28">
   <r>
     <x v="0"/>
     <n v="84798962"/>
     <s v="自动贴片机"/>
     <n v="1273"/>
     <n v="1133836205"/>
+    <n v="2022"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="1"/>
@@ -17455,6 +17762,8 @@
     <s v="自动贴片机"/>
     <n v="790"/>
     <n v="671909522"/>
+    <n v="2022"/>
+    <n v="2"/>
   </r>
   <r>
     <x v="2"/>
@@ -17462,6 +17771,8 @@
     <s v="自动贴片机"/>
     <n v="1680"/>
     <n v="1582113796"/>
+    <n v="2022"/>
+    <n v="3"/>
   </r>
   <r>
     <x v="3"/>
@@ -17469,6 +17780,8 @@
     <s v="自动贴片机"/>
     <n v="1346"/>
     <n v="1162237598"/>
+    <n v="2022"/>
+    <n v="4"/>
   </r>
   <r>
     <x v="4"/>
@@ -17476,6 +17789,8 @@
     <s v="自动贴片机"/>
     <n v="1481"/>
     <n v="1199261318"/>
+    <n v="2022"/>
+    <n v="5"/>
   </r>
   <r>
     <x v="5"/>
@@ -17483,6 +17798,8 @@
     <s v="自动贴片机"/>
     <n v="1813"/>
     <n v="1507977751"/>
+    <n v="2022"/>
+    <n v="6"/>
   </r>
   <r>
     <x v="6"/>
@@ -17490,6 +17807,8 @@
     <s v="自动贴片机"/>
     <n v="1666"/>
     <n v="1488653276"/>
+    <n v="2022"/>
+    <n v="7"/>
   </r>
   <r>
     <x v="7"/>
@@ -17497,6 +17816,8 @@
     <s v="自动贴片机"/>
     <n v="1295"/>
     <n v="1172752758"/>
+    <n v="2022"/>
+    <n v="8"/>
   </r>
   <r>
     <x v="8"/>
@@ -17504,6 +17825,8 @@
     <s v="自动贴片机"/>
     <n v="1185"/>
     <n v="1005090594"/>
+    <n v="2022"/>
+    <n v="9"/>
   </r>
   <r>
     <x v="9"/>
@@ -17511,6 +17834,8 @@
     <s v="自动贴片机"/>
     <n v="983"/>
     <n v="810326436"/>
+    <n v="2022"/>
+    <n v="10"/>
   </r>
   <r>
     <x v="10"/>
@@ -17518,6 +17843,8 @@
     <s v="自动贴片机"/>
     <n v="996"/>
     <n v="790435167"/>
+    <n v="2022"/>
+    <n v="11"/>
   </r>
   <r>
     <x v="11"/>
@@ -17525,6 +17852,8 @@
     <s v="自动贴片机"/>
     <n v="937"/>
     <n v="947867895"/>
+    <n v="2022"/>
+    <n v="12"/>
   </r>
   <r>
     <x v="12"/>
@@ -17532,6 +17861,8 @@
     <s v="自动贴片机"/>
     <n v="594"/>
     <n v="563858633"/>
+    <n v="2023"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="13"/>
@@ -17539,6 +17870,8 @@
     <s v="自动贴片机"/>
     <n v="724"/>
     <n v="626594515"/>
+    <n v="2023"/>
+    <n v="2"/>
   </r>
   <r>
     <x v="14"/>
@@ -17546,6 +17879,8 @@
     <s v="自动贴片机"/>
     <n v="868"/>
     <n v="902759832"/>
+    <n v="2023"/>
+    <n v="3"/>
   </r>
   <r>
     <x v="15"/>
@@ -17553,6 +17888,8 @@
     <s v="自动贴片机"/>
     <n v="1149"/>
     <n v="936167828"/>
+    <n v="2023"/>
+    <n v="4"/>
   </r>
   <r>
     <x v="16"/>
@@ -17560,6 +17897,8 @@
     <s v="自动贴片机"/>
     <n v="946"/>
     <n v="784918762"/>
+    <n v="2023"/>
+    <n v="5"/>
   </r>
   <r>
     <x v="17"/>
@@ -17567,6 +17906,8 @@
     <s v="自动贴片机"/>
     <n v="1029"/>
     <n v="990018684"/>
+    <n v="2023"/>
+    <n v="6"/>
   </r>
   <r>
     <x v="18"/>
@@ -17574,6 +17915,8 @@
     <s v="自动贴片机"/>
     <n v="1075"/>
     <n v="753315739"/>
+    <n v="2023"/>
+    <n v="7"/>
   </r>
   <r>
     <x v="19"/>
@@ -17581,6 +17924,8 @@
     <s v="自动贴片机"/>
     <n v="908"/>
     <n v="725578936"/>
+    <n v="2023"/>
+    <n v="8"/>
   </r>
   <r>
     <x v="20"/>
@@ -17588,6 +17933,8 @@
     <s v="自动贴片机"/>
     <n v="866"/>
     <n v="603898236"/>
+    <n v="2023"/>
+    <n v="9"/>
   </r>
   <r>
     <x v="21"/>
@@ -17595,6 +17942,8 @@
     <s v="自动贴片机"/>
     <n v="985"/>
     <n v="691942839"/>
+    <n v="2023"/>
+    <n v="10"/>
   </r>
   <r>
     <x v="22"/>
@@ -17602,6 +17951,8 @@
     <s v="MOUNTER"/>
     <n v="700"/>
     <n v="601932850"/>
+    <n v="2023"/>
+    <n v="11"/>
   </r>
   <r>
     <x v="23"/>
@@ -17609,6 +17960,8 @@
     <s v="MOUNTER"/>
     <n v="1017"/>
     <n v="848704871"/>
+    <n v="2023"/>
+    <n v="12"/>
   </r>
   <r>
     <x v="24"/>
@@ -17616,6 +17969,8 @@
     <s v="MOUNTER"/>
     <n v="796"/>
     <n v="684886046"/>
+    <n v="2024"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="25"/>
@@ -17623,6 +17978,8 @@
     <s v="MOUNTER"/>
     <n v="545"/>
     <n v="425456191"/>
+    <n v="2024"/>
+    <n v="2"/>
   </r>
   <r>
     <x v="26"/>
@@ -17630,14 +17987,25 @@
     <s v="MOUNTER"/>
     <n v="1067"/>
     <n v="790478375"/>
+    <n v="2024"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <n v="84798962"/>
+    <s v="MOUNTER"/>
+    <n v="1307"/>
+    <n v="987977571"/>
+    <n v="2024"/>
+    <n v="4"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{87FD3E8F-5C4A-49FA-A342-307177F09CE8}" name="PivotTable7" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="123">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{87FD3E8F-5C4A-49FA-A342-307177F09CE8}" name="PivotTable7" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="123">
   <location ref="I1:Q16" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
-  <pivotFields count="7">
+  <pivotFields count="9">
     <pivotField compact="0" numFmtId="14" outline="0" showAll="0">
       <items count="37">
         <item x="0"/>
@@ -17667,7 +18035,7 @@
         <item x="24"/>
         <item x="25"/>
         <item x="26"/>
-        <item m="1" x="27"/>
+        <item x="27"/>
         <item m="1" x="28"/>
         <item m="1" x="29"/>
         <item m="1" x="30"/>
@@ -17683,6 +18051,8 @@
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
     <pivotField dataField="1" compact="0" numFmtId="3" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
       <items count="15">
         <item x="0"/>
@@ -17714,7 +18084,7 @@
     </pivotField>
   </pivotFields>
   <rowFields count="1">
-    <field x="5"/>
+    <field x="7"/>
   </rowFields>
   <rowItems count="13">
     <i>
@@ -17758,7 +18128,7 @@
     </i>
   </rowItems>
   <colFields count="2">
-    <field x="6"/>
+    <field x="8"/>
     <field x="-2"/>
   </colFields>
   <colItems count="8">
@@ -17801,19 +18171,19 @@
     <format dxfId="11">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
-          <reference field="6" count="0" defaultSubtotal="1"/>
+          <reference field="8" count="0" defaultSubtotal="1"/>
         </references>
       </pivotArea>
     </format>
   </formats>
-  <chartFormats count="6">
+  <chartFormats count="8">
     <chartFormat chart="52" format="71" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="6" count="1" selected="0">
+          <reference field="8" count="1" selected="0">
             <x v="1"/>
           </reference>
         </references>
@@ -17825,7 +18195,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="6" count="1" selected="0">
+          <reference field="8" count="1" selected="0">
             <x v="2"/>
           </reference>
         </references>
@@ -17837,7 +18207,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="6" count="1" selected="0">
+          <reference field="8" count="1" selected="0">
             <x v="3"/>
           </reference>
         </references>
@@ -17849,7 +18219,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="1"/>
           </reference>
-          <reference field="6" count="1" selected="0">
+          <reference field="8" count="1" selected="0">
             <x v="1"/>
           </reference>
         </references>
@@ -17861,7 +18231,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="1"/>
           </reference>
-          <reference field="6" count="1" selected="0">
+          <reference field="8" count="1" selected="0">
             <x v="2"/>
           </reference>
         </references>
@@ -17873,8 +18243,38 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="1"/>
           </reference>
-          <reference field="6" count="1" selected="0">
+          <reference field="8" count="1" selected="0">
             <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="52" format="77">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="52" format="78">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -17893,10 +18293,366 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9685A68E-8C96-1E48-A3E7-1A5FAEB4825F}" name="樞紐分析表2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="21">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8D793587-1DB0-0547-BF81-FE6AB15E92C8}" name="樞紐分析表4" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="22">
+  <location ref="G10:I17" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" compact="0" numFmtId="166" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
+      <items count="2">
+        <item h="1" x="1"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="加總 - 进口台数" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="22">
+    <chartFormat chart="4" format="35" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="36" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="37" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="38" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="39" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="45" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="46" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="47" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="48" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="49" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9685A68E-8C96-1E48-A3E7-1A5FAEB4825F}" name="樞紐分析表2" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="21">
   <location ref="G2:N6" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="5">
-    <pivotField axis="axisRow" compact="0" numFmtId="179" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
+    <pivotField axis="axisRow" compact="0" numFmtId="166" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
       <items count="2">
         <item x="1"/>
         <item x="0"/>
@@ -18050,11 +18806,11 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F125B809-624F-B046-9A72-D56FF80DBFF5}" name="樞紐分析表7" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="15">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F125B809-624F-B046-9A72-D56FF80DBFF5}" name="樞紐分析表7" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="15">
   <location ref="P10:R25" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="5">
-    <pivotField axis="axisRow" compact="0" numFmtId="179" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
+    <pivotField axis="axisRow" compact="0" numFmtId="166" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
       <items count="2">
         <item h="1" x="1"/>
         <item x="0"/>
@@ -18439,11 +19195,11 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D460E2C7-AC00-7A40-9524-C20F01787F3A}" name="樞紐分析表5" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="24">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D460E2C7-AC00-7A40-9524-C20F01787F3A}" name="樞紐分析表5" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="P2:AF6" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="5">
-    <pivotField axis="axisRow" compact="0" numFmtId="179" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
+    <pivotField axis="axisRow" compact="0" numFmtId="166" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
       <items count="2">
         <item x="1"/>
         <item x="0"/>
@@ -18738,362 +19494,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8D793587-1DB0-0547-BF81-FE6AB15E92C8}" name="樞紐分析表4" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="22">
-  <location ref="G10:I17" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
-  <pivotFields count="5">
-    <pivotField axis="axisRow" compact="0" numFmtId="179" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
-      <items count="2">
-        <item h="1" x="1"/>
-        <item x="0"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="5">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="4"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="1"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="加總 - 进口台数" fld="4" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="22">
-    <chartFormat chart="4" format="35" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="36" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="37" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="38" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="39" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="45" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="46" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="47" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="48" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="49" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_数据年1" xr10:uid="{2E77CC53-76A0-4151-94D5-1D38E29F8B8A}" sourceName="数据年">
   <pivotTables>
@@ -19134,8 +19534,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0CC1F88B-3AC7-4F1B-8523-65FE854EB900}" name="表1" displayName="表1" ref="A1:G28" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="A1:G28" xr:uid="{0CC1F88B-3AC7-4F1B-8523-65FE854EB900}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0CC1F88B-3AC7-4F1B-8523-65FE854EB900}" name="表1" displayName="表1" ref="A1:G29" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="A1:G29" xr:uid="{0CC1F88B-3AC7-4F1B-8523-65FE854EB900}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{DF0CB27A-5837-454C-B2DD-277775B6FA27}" name="数据年月" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{BBEF57B6-BB8E-4B33-B6D1-8C2B401258F8}" name="商品编码" dataDxfId="5"/>
@@ -19419,22 +19819,22 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="30.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15">
+    <row r="1" spans="1:1" ht="15.6">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -19452,16 +19852,16 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="AD2:AD39"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AE32" sqref="AE32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.59765625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="2" spans="30:30" ht="27">
+    <row r="2" spans="30:30" ht="25.8">
       <c r="AD2" s="24"/>
     </row>
-    <row r="39" spans="30:30" ht="27">
+    <row r="39" spans="30:30" ht="25.8">
       <c r="AD39" s="24"/>
     </row>
   </sheetData>
@@ -19483,20 +19883,20 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1048576"/>
+    <sheetView topLeftCell="A19" zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="3" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="23.59765625" style="29" customWidth="1"/>
-    <col min="9" max="9" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="25.796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.59765625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="23.5546875" style="27" customWidth="1"/>
+    <col min="9" max="9" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -19515,10 +19915,10 @@
       <c r="E1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>85</v>
       </c>
       <c r="J1" s="11" t="s">
@@ -19544,11 +19944,11 @@
       <c r="E2" s="12">
         <v>1133836205</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="28">
         <f>YEAR(A2)</f>
         <v>2022</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2" s="28">
         <f>MONTH(A2)</f>
         <v>1</v>
       </c>
@@ -19584,11 +19984,11 @@
       <c r="E3" s="12">
         <v>671909522</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="28">
         <f t="shared" ref="F3:F28" si="0">YEAR(A3)</f>
         <v>2022</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="28">
         <f t="shared" ref="G3:G28" si="1">MONTH(A3)</f>
         <v>2</v>
       </c>
@@ -19630,11 +20030,11 @@
       <c r="E4" s="12">
         <v>1582113796</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="28">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="28">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -19682,11 +20082,11 @@
       <c r="E5" s="12">
         <v>1162237598</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="28">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="28">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -19734,11 +20134,11 @@
       <c r="E6" s="13">
         <v>1199261318</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="28">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="28">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -19786,11 +20186,11 @@
       <c r="E7" s="13">
         <v>1507977751</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="28">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="28">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -19809,13 +20209,17 @@
       <c r="M7" s="3">
         <v>1149</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="N7" s="3">
+        <v>987977571</v>
+      </c>
+      <c r="O7" s="3">
+        <v>1307</v>
+      </c>
       <c r="P7" s="3">
-        <v>2098405426</v>
+        <v>3086382997</v>
       </c>
       <c r="Q7" s="3">
-        <v>2495</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -19834,11 +20238,11 @@
       <c r="E8" s="13">
         <v>1488653276</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="28">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="28">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -19882,11 +20286,11 @@
       <c r="E9" s="13">
         <v>1172752758</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="28">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="28">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -19930,11 +20334,11 @@
       <c r="E10" s="12">
         <v>1005090594</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="28">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="28">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -19978,11 +20382,11 @@
       <c r="E11" s="13">
         <v>810326436</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="28">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="28">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -20026,11 +20430,11 @@
       <c r="E12" s="12">
         <v>790435167</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="28">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="28">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
@@ -20074,11 +20478,11 @@
       <c r="E13" s="12">
         <v>947867895</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="28">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="28">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -20122,11 +20526,11 @@
       <c r="E14" s="4">
         <v>563858633</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="28">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="28">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -20170,11 +20574,11 @@
       <c r="E15" s="4">
         <v>626594515</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="28">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="28">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -20218,11 +20622,11 @@
       <c r="E16" s="4">
         <v>902759832</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="28">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="28">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -20242,16 +20646,16 @@
         <v>10861</v>
       </c>
       <c r="N16" s="3">
-        <v>1900820612</v>
+        <v>2888798183</v>
       </c>
       <c r="O16" s="3">
-        <v>2408</v>
+        <v>3715</v>
       </c>
       <c r="P16" s="3">
-        <v>24402974653</v>
+        <v>25390952224</v>
       </c>
       <c r="Q16" s="3">
-        <v>28714</v>
+        <v>30021</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -20270,11 +20674,11 @@
       <c r="E17" s="4">
         <v>936167828</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="28">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="28">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -20295,11 +20699,11 @@
       <c r="E18" s="4">
         <v>784918762</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="28">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="28">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -20320,11 +20724,11 @@
       <c r="E19" s="4">
         <v>990018684</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="28">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="G19" s="25">
+      <c r="G19" s="28">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -20345,11 +20749,11 @@
       <c r="E20" s="4">
         <v>753315739</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="28">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="G20" s="25">
+      <c r="G20" s="28">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -20370,11 +20774,11 @@
       <c r="E21" s="4">
         <v>725578936</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="28">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="G21" s="25">
+      <c r="G21" s="28">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -20395,11 +20799,11 @@
       <c r="E22" s="4">
         <v>603898236</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="28">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="G22" s="25">
+      <c r="G22" s="28">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -20420,11 +20824,11 @@
       <c r="E23" s="10">
         <v>691942839</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="28">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="G23" s="25">
+      <c r="G23" s="28">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -20445,11 +20849,11 @@
       <c r="E24" s="10">
         <v>601932850</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="28">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="G24" s="25">
+      <c r="G24" s="28">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
@@ -20470,11 +20874,11 @@
       <c r="E25" s="10">
         <v>848704871</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="28">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="G25" s="25">
+      <c r="G25" s="28">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -20495,11 +20899,11 @@
       <c r="E26" s="10">
         <v>684886046</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="28">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="G26" s="25">
+      <c r="G26" s="28">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -20520,11 +20924,11 @@
       <c r="E27" s="4">
         <v>425456191</v>
       </c>
-      <c r="F27" s="25">
+      <c r="F27" s="28">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="G27" s="25">
+      <c r="G27" s="28">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -20545,23 +20949,39 @@
       <c r="E28" s="10">
         <v>790478375</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F28" s="28">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="G28" s="25">
+      <c r="G28" s="28">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="14"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
+      <c r="A29" s="14">
+        <v>45383</v>
+      </c>
+      <c r="B29" s="8">
+        <v>84798962</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="17">
+        <v>1307</v>
+      </c>
+      <c r="E29" s="10">
+        <v>987977571</v>
+      </c>
+      <c r="F29" s="29">
+        <f>YEAR(A29)</f>
+        <v>2024</v>
+      </c>
+      <c r="G29" s="29">
+        <f>MONTH(A29)</f>
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -20578,29 +20998,29 @@
   <dimension ref="A1:AF27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.59765625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11" style="22"/>
     <col min="2" max="2" width="9" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.19921875" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="7.19921875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="31" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="31" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="13" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -21531,15 +21951,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="efa1766b-290e-4930-94b4-5079da17b09c" xsi:nil="true"/>
@@ -21557,7 +21968,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A7109B3B55D7BD4CB0BB5071BD3EDE6A" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b977184600e28ad2bf08984bbfdd6024">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="efa1766b-290e-4930-94b4-5079da17b09c" xmlns:ns3="dcec4b07-66e7-4e8f-b2bb-0bd07e3b5177" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="79a599c2fa4e3322495a25ac60e5c4cb" ns2:_="" ns3:_="">
     <xsd:import namespace="efa1766b-290e-4930-94b4-5079da17b09c"/>
@@ -21846,15 +22257,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74E3E345-357A-4B7D-86CD-73BE6C38C8D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC281514-C9C5-4709-81CC-9AFF927FE8B7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -21871,7 +22283,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0C1493E-3805-42E3-971B-2BA89ADB6FB8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21888,4 +22300,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74E3E345-357A-4B7D-86CD-73BE6C38C8D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Machine_Import_data.xlsx
+++ b/Machine_Import_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ArthurChan\Data\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eselhk.sharepoint.com/Shared Documents/c49/c49hkg.cs-common/Monthly Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79058CBC-6191-462B-9712-08120DC0AEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="13_ncr:1_{79058CBC-6191-462B-9712-08120DC0AEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18497E5F-4571-4284-8ACC-219A2BD55AA7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3132" yWindow="0" windowWidth="18708" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mounter_全国年度进口图" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,10 @@
     <definedName name="Slicer_数据年">#N/A</definedName>
     <definedName name="Slicer_数据年1">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="191028" iterate="1"/>
+  <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="48" r:id="rId5"/>
-    <pivotCache cacheId="49" r:id="rId6"/>
+    <pivotCache cacheId="19" r:id="rId5"/>
+    <pivotCache cacheId="23" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="86">
   <si>
     <t>查询网址：http://stats.customs.gov.cn/</t>
   </si>
@@ -270,12 +270,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
     <t>PIE CHART-CITY</t>
   </si>
   <si>
@@ -283,6 +277,14 @@
   </si>
   <si>
     <t>其他未能統計省份</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MONTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2022</t>
@@ -300,48 +302,46 @@
     <t>Total Sum of 台数</t>
   </si>
   <si>
-    <t>一月</t>
+    <t>Jan</t>
   </si>
   <si>
-    <t>二月</t>
+    <t>Feb</t>
   </si>
   <si>
-    <t>三月</t>
+    <t>Mar</t>
   </si>
   <si>
-    <t>四月</t>
+    <t>Apr</t>
   </si>
   <si>
-    <t>五月</t>
+    <t>May</t>
   </si>
   <si>
-    <t>六月</t>
+    <t>Jun</t>
   </si>
   <si>
-    <t>七月</t>
+    <t>Jul</t>
   </si>
   <si>
-    <t>八月</t>
+    <t>Aug</t>
   </si>
   <si>
-    <t>九月</t>
+    <t>Sep</t>
   </si>
   <si>
-    <t>十月</t>
+    <t>Oct</t>
   </si>
   <si>
-    <t>十一月</t>
+    <t>Nov</t>
   </si>
   <si>
-    <t>十二月</t>
+    <t>Dec</t>
   </si>
   <si>
-    <t>YEAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Grand Total</t>
   </si>
   <si>
-    <t>MONTH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -555,7 +555,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -626,6 +626,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -709,7 +713,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <numFmt numFmtId="167" formatCode="yyyy/m/d"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -733,6 +737,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -742,13 +753,6 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1409,7 +1413,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Machine Import data.xlsx]raw data!PivotTable7</c:name>
+    <c:name>[Machine_Import_data.xlsx]raw data!PivotTable7</c:name>
     <c:fmtId val="52"/>
   </c:pivotSource>
   <c:chart>
@@ -4494,6 +4498,659 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="79"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="-6.3580803253335165E-3"/>
+              <c:y val="-1.4823888988914473E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="80"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="81"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="82"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="83"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="84"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="85"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="86"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="87"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="88"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="89"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="90"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="91"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="92"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="-1.6644750350588298E-2"/>
+              <c:y val="-2.195475917425135E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="93"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="-4.8547188522549047E-3"/>
+              <c:y val="-4.4722140943190213E-17"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="94"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="-2.7741250584313744E-3"/>
+              <c:y val="-2.5613885703293333E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="95"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="96"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="97"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="98"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="99"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="100"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="101"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="-6.9353126460784361E-4"/>
+              <c:y val="-2.3174468017265314E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -4517,7 +5174,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:srgbClr val="FFC000"/>
             </a:solidFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
@@ -4527,40 +5184,40 @@
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>一月</c:v>
+                  <c:v>Jan</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>二月</c:v>
+                  <c:v>Feb</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>三月</c:v>
+                  <c:v>Mar</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>四月</c:v>
+                  <c:v>Apr</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>五月</c:v>
+                  <c:v>May</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>六月</c:v>
+                  <c:v>Jun</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>七月</c:v>
+                  <c:v>Jul</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>八月</c:v>
+                  <c:v>Aug</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>九月</c:v>
+                  <c:v>Sep</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>十月</c:v>
+                  <c:v>Oct</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>十一月</c:v>
+                  <c:v>Nov</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>十二月</c:v>
+                  <c:v>Dec</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4642,40 +5299,40 @@
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>一月</c:v>
+                  <c:v>Jan</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>二月</c:v>
+                  <c:v>Feb</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>三月</c:v>
+                  <c:v>Mar</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>四月</c:v>
+                  <c:v>Apr</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>五月</c:v>
+                  <c:v>May</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>六月</c:v>
+                  <c:v>Jun</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>七月</c:v>
+                  <c:v>Jul</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>八月</c:v>
+                  <c:v>Aug</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>九月</c:v>
+                  <c:v>Sep</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>十月</c:v>
+                  <c:v>Oct</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>十一月</c:v>
+                  <c:v>Nov</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>十二月</c:v>
+                  <c:v>Dec</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4757,40 +5414,40 @@
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>一月</c:v>
+                  <c:v>Jan</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>二月</c:v>
+                  <c:v>Feb</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>三月</c:v>
+                  <c:v>Mar</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>四月</c:v>
+                  <c:v>Apr</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>五月</c:v>
+                  <c:v>May</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>六月</c:v>
+                  <c:v>Jun</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>七月</c:v>
+                  <c:v>Jul</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>八月</c:v>
+                  <c:v>Aug</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>九月</c:v>
+                  <c:v>Sep</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>十月</c:v>
+                  <c:v>Oct</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>十一月</c:v>
+                  <c:v>Nov</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>十二月</c:v>
+                  <c:v>Dec</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4812,6 +5469,18 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>987977571</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>906749498</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1060059842</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1067909971</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>798223277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4854,18 +5523,15 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
           <c:marker>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
               <a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:srgbClr val="FFC000"/>
                 </a:solidFill>
               </a:ln>
             </c:spPr>
@@ -4885,7 +5551,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="1"/>
+                  <a:defRPr sz="1400" b="1"/>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -4909,40 +5575,40 @@
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>一月</c:v>
+                  <c:v>Jan</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>二月</c:v>
+                  <c:v>Feb</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>三月</c:v>
+                  <c:v>Mar</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>四月</c:v>
+                  <c:v>Apr</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>五月</c:v>
+                  <c:v>May</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>六月</c:v>
+                  <c:v>Jun</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>七月</c:v>
+                  <c:v>Jul</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>八月</c:v>
+                  <c:v>Aug</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>九月</c:v>
+                  <c:v>Sep</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>十月</c:v>
+                  <c:v>Oct</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>十一月</c:v>
+                  <c:v>Nov</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>十二月</c:v>
+                  <c:v>Dec</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5037,8 +5703,8 @@
               <c:idx val="9"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.5877605912070318E-3"/>
-                  <c:y val="-1.9268347102963282E-2"/>
+                  <c:x val="-6.9353126460784361E-4"/>
+                  <c:y val="-2.3174468017265314E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -5050,7 +5716,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-5D39-45C1-B89C-524CD6DBD8D1}"/>
+                  <c16:uniqueId val="{00000003-9B07-414B-93AC-2DD37A19B335}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5068,7 +5734,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="1"/>
+                  <a:defRPr sz="1400" b="1"/>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -5092,40 +5758,40 @@
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>一月</c:v>
+                  <c:v>Jan</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>二月</c:v>
+                  <c:v>Feb</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>三月</c:v>
+                  <c:v>Mar</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>四月</c:v>
+                  <c:v>Apr</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>五月</c:v>
+                  <c:v>May</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>六月</c:v>
+                  <c:v>Jun</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>七月</c:v>
+                  <c:v>Jul</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>八月</c:v>
+                  <c:v>Aug</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>九月</c:v>
+                  <c:v>Sep</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>十月</c:v>
+                  <c:v>Oct</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>十一月</c:v>
+                  <c:v>Nov</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>十二月</c:v>
+                  <c:v>Dec</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5205,6 +5871,9 @@
           </c:spPr>
           <c:marker>
             <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
               <a:ln>
                 <a:solidFill>
                   <a:srgbClr val="92D050"/>
@@ -5222,27 +5891,6 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.1114324138449223E-2"/>
-                  <c:y val="1.3246988633287226E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-5D39-45C1-B89C-524CD6DBD8D1}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -5257,7 +5905,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="1"/>
+                  <a:defRPr sz="1400" b="1"/>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -5281,40 +5929,40 @@
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>一月</c:v>
+                  <c:v>Jan</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>二月</c:v>
+                  <c:v>Feb</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>三月</c:v>
+                  <c:v>Mar</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>四月</c:v>
+                  <c:v>Apr</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>五月</c:v>
+                  <c:v>May</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>六月</c:v>
+                  <c:v>Jun</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>七月</c:v>
+                  <c:v>Jul</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>八月</c:v>
+                  <c:v>Aug</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>九月</c:v>
+                  <c:v>Sep</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>十月</c:v>
+                  <c:v>Oct</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>十一月</c:v>
+                  <c:v>Nov</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>十二月</c:v>
+                  <c:v>Dec</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5336,6 +5984,18 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1307</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1166</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1241</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1522</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1061</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5606,7 +6266,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Machine Import data.xlsx]raw data_Region!樞紐分析表2</c:name>
+    <c:name>[Machine_Import_data.xlsx]raw data_Region!樞紐分析表2</c:name>
     <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
@@ -7925,7 +8585,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Machine Import data.xlsx]raw data_Region!樞紐分析表5</c:name>
+    <c:name>[Machine_Import_data.xlsx]raw data_Region!樞紐分析表5</c:name>
     <c:fmtId val="13"/>
   </c:pivotSource>
   <c:chart>
@@ -12210,7 +12870,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Machine Import data.xlsx]raw data_Region!樞紐分析表4</c:name>
+    <c:name>[Machine_Import_data.xlsx]raw data_Region!樞紐分析表4</c:name>
     <c:fmtId val="15"/>
   </c:pivotSource>
   <c:chart>
@@ -13111,7 +13771,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Machine Import data.xlsx]raw data_Region!樞紐分析表7</c:name>
+    <c:name>[Machine_Import_data.xlsx]raw data_Region!樞紐分析表7</c:name>
     <c:fmtId val="13"/>
   </c:pivotSource>
   <c:chart>
@@ -16144,8 +16804,8 @@
       <xdr:rowOff>24507</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>91966</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>453571</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>170610</xdr:rowOff>
     </xdr:to>
@@ -17396,7 +18056,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ArthurChan" refreshedDate="45433.605701967594" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="26" xr:uid="{307037F0-6138-0347-A69C-EB923C7D0537}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ArthurChan" refreshedDate="45555.4137962963" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="26" xr:uid="{307037F0-6138-0347-A69C-EB923C7D0537}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:E27" sheet="raw data_Region"/>
   </cacheSource>
@@ -17408,7 +18068,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="地區" numFmtId="14">
-      <sharedItems count="5">
+      <sharedItems containsNonDate="0" count="5">
         <s v="NORTH"/>
         <s v="EAST"/>
         <s v="WEST"/>
@@ -17417,7 +18077,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="主要进口省份" numFmtId="14">
-      <sharedItems count="14">
+      <sharedItems containsNonDate="0" count="14">
         <s v="北京市"/>
         <s v="天津市"/>
         <s v="上海市"/>
@@ -17452,7 +18112,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ArthurChan" refreshedDate="45433.605702546294" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="28" xr:uid="{46C3B069-3CF6-460D-ACAF-0F80FC0BC90A}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ArthurChan" refreshedDate="45555.413796643516" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="32" xr:uid="{46C3B069-3CF6-460D-ACAF-0F80FC0BC90A}">
   <cacheSource type="worksheet">
     <worksheetSource name="表1"/>
   </cacheSource>
@@ -17487,10 +18147,10 @@
         <d v="2024-02-01T00:00:00"/>
         <d v="2024-03-01T00:00:00"/>
         <d v="2024-04-01T00:00:00"/>
-        <d v="2024-05-01T00:00:00" u="1"/>
-        <d v="2024-06-01T00:00:00" u="1"/>
-        <d v="2024-07-01T00:00:00" u="1"/>
-        <d v="2024-08-01T00:00:00" u="1"/>
+        <d v="2024-05-01T00:00:00"/>
+        <d v="2024-06-01T00:00:00"/>
+        <d v="2024-07-01T00:00:00"/>
+        <d v="2024-08-01T00:00:00"/>
         <d v="2024-09-01T00:00:00" u="1"/>
         <d v="2024-10-01T00:00:00" u="1"/>
         <d v="2024-11-01T00:00:00" u="1"/>
@@ -17518,34 +18178,34 @@
     </cacheField>
     <cacheField name="Months (数据年月)" numFmtId="0" databaseField="0">
       <fieldGroup base="0">
-        <rangePr groupBy="months" startDate="2022-01-01T00:00:00" endDate="2024-04-02T00:00:00"/>
+        <rangePr groupBy="months" startDate="2022-01-01T00:00:00" endDate="2024-08-02T00:00:00"/>
         <groupItems count="14">
-          <s v="&lt;2022/1/1"/>
-          <s v="一月"/>
-          <s v="二月"/>
-          <s v="三月"/>
-          <s v="四月"/>
-          <s v="五月"/>
-          <s v="六月"/>
-          <s v="七月"/>
-          <s v="八月"/>
-          <s v="九月"/>
-          <s v="十月"/>
-          <s v="十一月"/>
-          <s v="十二月"/>
-          <s v="&gt;2024/4/2"/>
+          <s v="&lt;1/1/2022"/>
+          <s v="Jan"/>
+          <s v="Feb"/>
+          <s v="Mar"/>
+          <s v="Apr"/>
+          <s v="May"/>
+          <s v="Jun"/>
+          <s v="Jul"/>
+          <s v="Aug"/>
+          <s v="Sep"/>
+          <s v="Oct"/>
+          <s v="Nov"/>
+          <s v="Dec"/>
+          <s v="&gt;2/8/2024"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
     <cacheField name="Years (数据年月)" numFmtId="0" databaseField="0">
       <fieldGroup base="0">
-        <rangePr groupBy="years" startDate="2022-01-01T00:00:00" endDate="2024-04-02T00:00:00"/>
+        <rangePr groupBy="years" startDate="2022-01-01T00:00:00" endDate="2024-08-02T00:00:00"/>
         <groupItems count="5">
-          <s v="&lt;2022/1/1"/>
+          <s v="&lt;1/1/2022"/>
           <s v="2022"/>
           <s v="2023"/>
           <s v="2024"/>
-          <s v="&gt;2024/4/2"/>
+          <s v="&gt;2/8/2024"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
@@ -17746,7 +18406,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="28">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="32">
   <r>
     <x v="0"/>
     <n v="84798962"/>
@@ -17999,11 +18659,47 @@
     <n v="2024"/>
     <n v="4"/>
   </r>
+  <r>
+    <x v="28"/>
+    <n v="84798962"/>
+    <s v="MOUNTER"/>
+    <n v="1166"/>
+    <n v="906749498"/>
+    <n v="2024"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <n v="84798962"/>
+    <s v="MOUNTER"/>
+    <n v="1241"/>
+    <n v="1060059842"/>
+    <n v="2024"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <n v="84798962"/>
+    <s v="MOUNTER"/>
+    <n v="1522"/>
+    <n v="1067909971"/>
+    <n v="2024"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <n v="84798962"/>
+    <s v="MOUNTER"/>
+    <n v="1061"/>
+    <n v="798223277"/>
+    <n v="2024"/>
+    <n v="8"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{87FD3E8F-5C4A-49FA-A342-307177F09CE8}" name="PivotTable7" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="123">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{87FD3E8F-5C4A-49FA-A342-307177F09CE8}" name="PivotTable7" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="123">
   <location ref="I1:Q16" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField compact="0" numFmtId="14" outline="0" showAll="0">
@@ -18036,10 +18732,10 @@
         <item x="25"/>
         <item x="26"/>
         <item x="27"/>
-        <item m="1" x="28"/>
-        <item m="1" x="29"/>
-        <item m="1" x="30"/>
-        <item m="1" x="31"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
         <item m="1" x="32"/>
         <item m="1" x="33"/>
         <item m="1" x="34"/>
@@ -18176,8 +18872,8 @@
       </pivotArea>
     </format>
   </formats>
-  <chartFormats count="8">
-    <chartFormat chart="52" format="71" series="1">
+  <chartFormats count="7">
+    <chartFormat chart="52" format="95" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -18189,7 +18885,19 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="52" format="72" series="1">
+    <chartFormat chart="52" format="96" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="52" format="97" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -18201,7 +18909,19 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="52" format="73" series="1">
+    <chartFormat chart="52" format="98" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="52" format="99" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -18213,31 +18933,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="52" format="74" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="52" format="75" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="52" format="76" series="1">
+    <chartFormat chart="52" format="100" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -18249,22 +18945,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="52" format="77">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="52" format="78">
+    <chartFormat chart="52" format="101">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -18293,7 +18974,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8D793587-1DB0-0547-BF81-FE6AB15E92C8}" name="樞紐分析表4" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="22">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8D793587-1DB0-0547-BF81-FE6AB15E92C8}" name="樞紐分析表4" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="22">
   <location ref="G10:I17" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" compact="0" numFmtId="166" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
@@ -18649,7 +19330,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9685A68E-8C96-1E48-A3E7-1A5FAEB4825F}" name="樞紐分析表2" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="21">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9685A68E-8C96-1E48-A3E7-1A5FAEB4825F}" name="樞紐分析表2" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="21">
   <location ref="G2:N6" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" compact="0" numFmtId="166" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
@@ -18807,7 +19488,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F125B809-624F-B046-9A72-D56FF80DBFF5}" name="樞紐分析表7" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="15">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F125B809-624F-B046-9A72-D56FF80DBFF5}" name="樞紐分析表7" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="15">
   <location ref="P10:R25" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" compact="0" numFmtId="166" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
@@ -19196,7 +19877,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D460E2C7-AC00-7A40-9524-C20F01787F3A}" name="樞紐分析表5" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="24">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D460E2C7-AC00-7A40-9524-C20F01787F3A}" name="樞紐分析表5" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="P2:AF6" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" compact="0" numFmtId="166" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
@@ -19534,8 +20215,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0CC1F88B-3AC7-4F1B-8523-65FE854EB900}" name="表1" displayName="表1" ref="A1:G29" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="A1:G29" xr:uid="{0CC1F88B-3AC7-4F1B-8523-65FE854EB900}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0CC1F88B-3AC7-4F1B-8523-65FE854EB900}" name="表1" displayName="表1" ref="A1:G33" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+  <autoFilter ref="A1:G33" xr:uid="{0CC1F88B-3AC7-4F1B-8523-65FE854EB900}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{DF0CB27A-5837-454C-B2DD-277775B6FA27}" name="数据年月" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{BBEF57B6-BB8E-4B33-B6D1-8C2B401258F8}" name="商品编码" dataDxfId="5"/>
@@ -19816,22 +20497,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1">
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="Q35" sqref="Q35"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.77734375" customWidth="1"/>
     <col min="7" max="8" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15.6">
@@ -19849,11 +20534,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9199A77-17D4-0648-B5B4-7C446833849E}">
-  <sheetPr codeName="Sheet3"/>
+  <sheetPr codeName="Sheet3">
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="AD2:AD39"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AE32" sqref="AE32"/>
+    <sheetView topLeftCell="E71" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="S99" sqref="S99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
@@ -19881,10 +20568,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B840F9D4-47E5-4CA7-937F-8A236ADA35AD}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -19893,9 +20580,9 @@
     <col min="5" max="5" width="23.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="23.5546875" style="27" customWidth="1"/>
     <col min="9" max="9" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="26" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -19916,10 +20603,10 @@
         <v>12</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>4</v>
@@ -20261,13 +20948,17 @@
       <c r="M8" s="3">
         <v>946</v>
       </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
+      <c r="N8" s="3">
+        <v>906749498</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1166</v>
+      </c>
       <c r="P8" s="3">
-        <v>1984180080</v>
+        <v>2890929578</v>
       </c>
       <c r="Q8" s="3">
-        <v>2427</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -20309,13 +21000,17 @@
       <c r="M9" s="3">
         <v>1029</v>
       </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
+      <c r="N9" s="3">
+        <v>1060059842</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1241</v>
+      </c>
       <c r="P9" s="3">
-        <v>2497996435</v>
+        <v>3558056277</v>
       </c>
       <c r="Q9" s="3">
-        <v>2842</v>
+        <v>4083</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -20357,13 +21052,17 @@
       <c r="M10" s="3">
         <v>1075</v>
       </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
+      <c r="N10" s="3">
+        <v>1067909971</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1522</v>
+      </c>
       <c r="P10" s="3">
-        <v>2241969015</v>
+        <v>3309878986</v>
       </c>
       <c r="Q10" s="3">
-        <v>2741</v>
+        <v>4263</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -20405,13 +21104,17 @@
       <c r="M11" s="3">
         <v>908</v>
       </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
+      <c r="N11" s="3">
+        <v>798223277</v>
+      </c>
+      <c r="O11" s="3">
+        <v>1061</v>
+      </c>
       <c r="P11" s="3">
-        <v>1898331694</v>
+        <v>2696554971</v>
       </c>
       <c r="Q11" s="3">
-        <v>2203</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -20631,7 +21334,7 @@
         <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="J16" s="3">
         <v>13472462316</v>
@@ -20646,16 +21349,16 @@
         <v>10861</v>
       </c>
       <c r="N16" s="3">
-        <v>2888798183</v>
+        <v>6721740771</v>
       </c>
       <c r="O16" s="3">
-        <v>3715</v>
+        <v>8705</v>
       </c>
       <c r="P16" s="3">
-        <v>25390952224</v>
+        <v>29223894812</v>
       </c>
       <c r="Q16" s="3">
-        <v>30021</v>
+        <v>35011</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -20983,11 +21686,112 @@
         <v>4</v>
       </c>
     </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="14">
+        <v>45413</v>
+      </c>
+      <c r="B30" s="8">
+        <v>84798962</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="17">
+        <v>1166</v>
+      </c>
+      <c r="E30" s="10">
+        <v>906749498</v>
+      </c>
+      <c r="F30" s="29">
+        <f>YEAR(A30)</f>
+        <v>2024</v>
+      </c>
+      <c r="G30" s="29">
+        <f>MONTH(A30)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="14">
+        <v>45444</v>
+      </c>
+      <c r="B31" s="8">
+        <v>84798962</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="17">
+        <v>1241</v>
+      </c>
+      <c r="E31" s="10">
+        <v>1060059842</v>
+      </c>
+      <c r="F31" s="29">
+        <f>YEAR(A31)</f>
+        <v>2024</v>
+      </c>
+      <c r="G31" s="29">
+        <f>MONTH(A31)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="14">
+        <v>45474</v>
+      </c>
+      <c r="B32" s="8">
+        <v>84798962</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="17">
+        <v>1522</v>
+      </c>
+      <c r="E32" s="10">
+        <v>1067909971</v>
+      </c>
+      <c r="F32" s="29">
+        <f>YEAR(A32)</f>
+        <v>2024</v>
+      </c>
+      <c r="G32" s="29">
+        <f>MONTH(A32)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="14">
+        <v>45505</v>
+      </c>
+      <c r="B33" s="8">
+        <v>84798962</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="17">
+        <v>1061</v>
+      </c>
+      <c r="E33" s="10">
+        <v>798223277</v>
+      </c>
+      <c r="F33" s="30">
+        <f>YEAR(A33)</f>
+        <v>2024</v>
+      </c>
+      <c r="G33" s="30">
+        <f>MONTH(A33)</f>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -20998,7 +21802,7 @@
   <dimension ref="A1:AF27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
@@ -21008,14 +21812,12 @@
     <col min="3" max="3" width="19.21875" style="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="31" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="31" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="13" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="12.21875" bestFit="1" customWidth="1"/>
@@ -21113,7 +21915,7 @@
         <v>53</v>
       </c>
       <c r="N3" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="P3" s="11" t="s">
         <v>14</v>
@@ -21137,7 +21939,7 @@
         <v>26</v>
       </c>
       <c r="W3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
         <v>34</v>
@@ -21164,7 +21966,7 @@
         <v>20</v>
       </c>
       <c r="AF3" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -21189,22 +21991,22 @@
       <c r="H4" t="s">
         <v>51</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="31">
         <v>7943</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="31">
         <v>5675</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="31">
         <v>166</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="31">
         <v>260</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="31">
         <v>1403</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="31">
         <v>15447</v>
       </c>
       <c r="P4" s="21">
@@ -21213,46 +22015,47 @@
       <c r="Q4" t="s">
         <v>51</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="31">
         <v>7943</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="31">
         <v>2896</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="31">
         <v>1732</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="31">
         <v>1403</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="31">
         <v>376</v>
       </c>
-      <c r="X4">
+      <c r="W4" s="31"/>
+      <c r="X4" s="31">
         <v>301</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="31">
         <v>159</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="31">
         <v>153</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="31">
         <v>129</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" s="31">
         <v>82</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" s="31">
         <v>121</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" s="31">
         <v>107</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" s="31">
         <v>45</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" s="31">
         <v>15447</v>
       </c>
     </row>
@@ -21278,22 +22081,22 @@
       <c r="H5" t="s">
         <v>51</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="31">
         <v>6279</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="31">
         <v>3806</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="31">
         <v>53</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="31">
         <v>198</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="31">
         <v>524</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="31">
         <v>10860</v>
       </c>
       <c r="P5" s="21">
@@ -21302,46 +22105,47 @@
       <c r="Q5" t="s">
         <v>51</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="31">
         <v>6279</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="31">
         <v>1987</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="31">
         <v>1147</v>
       </c>
-      <c r="V5">
+      <c r="U5" s="31"/>
+      <c r="V5" s="31">
         <v>150</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="31">
         <v>524</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="31">
         <v>86</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="31">
         <v>198</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="31">
         <v>154</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" s="31">
         <v>96</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" s="31">
         <v>142</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" s="31">
         <v>45</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" s="31">
         <v>44</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" s="31">
         <v>8</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" s="31">
         <v>10860</v>
       </c>
     </row>
@@ -21362,72 +22166,72 @@
         <v>150</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6">
+        <v>84</v>
+      </c>
+      <c r="I6" s="31">
         <v>14222</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="31">
         <v>9481</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="31">
         <v>219</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="31">
         <v>458</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="31">
         <v>1927</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="31">
         <v>26307</v>
       </c>
       <c r="P6" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="R6">
+        <v>84</v>
+      </c>
+      <c r="R6" s="31">
         <v>14222</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="31">
         <v>4883</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="31">
         <v>2879</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="31">
         <v>1403</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="31">
         <v>526</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="31">
         <v>524</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="31">
         <v>387</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="31">
         <v>357</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="31">
         <v>307</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" s="31">
         <v>225</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" s="31">
         <v>224</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" s="31">
         <v>166</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" s="31">
         <v>151</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" s="31">
         <v>53</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" s="31">
         <v>26307</v>
       </c>
     </row>
@@ -21482,10 +22286,10 @@
         <v>96</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:32">
@@ -21534,7 +22338,7 @@
         <v>16</v>
       </c>
       <c r="I11" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="P11" s="11" t="s">
         <v>14</v>
@@ -21543,7 +22347,7 @@
         <v>56</v>
       </c>
       <c r="R11" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -21568,7 +22372,7 @@
       <c r="H12" t="s">
         <v>43</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="31">
         <v>6279</v>
       </c>
       <c r="P12" s="21">
@@ -21577,7 +22381,7 @@
       <c r="Q12" t="s">
         <v>40</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="31">
         <v>6279</v>
       </c>
     </row>
@@ -21600,13 +22404,13 @@
       <c r="H13" t="s">
         <v>47</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="31">
         <v>3806</v>
       </c>
       <c r="Q13" t="s">
         <v>22</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="31">
         <v>1987</v>
       </c>
     </row>
@@ -21618,7 +22422,7 @@
         <v>54</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
         <v>52</v>
@@ -21629,13 +22433,13 @@
       <c r="H14" t="s">
         <v>49</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="31">
         <v>53</v>
       </c>
       <c r="Q14" t="s">
         <v>24</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="31">
         <v>1147</v>
       </c>
     </row>
@@ -21658,13 +22462,13 @@
       <c r="H15" t="s">
         <v>45</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="31">
         <v>198</v>
       </c>
       <c r="Q15" t="s">
-        <v>66</v>
-      </c>
-      <c r="R15">
+        <v>64</v>
+      </c>
+      <c r="R15" s="31">
         <v>524</v>
       </c>
     </row>
@@ -21687,13 +22491,13 @@
       <c r="H16" t="s">
         <v>53</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="31">
         <v>524</v>
       </c>
       <c r="Q16" t="s">
         <v>30</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="31">
         <v>198</v>
       </c>
     </row>
@@ -21714,15 +22518,15 @@
         <v>2896</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="I17">
+        <v>84</v>
+      </c>
+      <c r="I17" s="31">
         <v>10860</v>
       </c>
       <c r="Q17" t="s">
         <v>38</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="31">
         <v>154</v>
       </c>
     </row>
@@ -21745,7 +22549,7 @@
       <c r="Q18" t="s">
         <v>26</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="31">
         <v>150</v>
       </c>
     </row>
@@ -21768,7 +22572,7 @@
       <c r="Q19" t="s">
         <v>28</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="31">
         <v>142</v>
       </c>
     </row>
@@ -21791,7 +22595,7 @@
       <c r="Q20" t="s">
         <v>32</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="31">
         <v>96</v>
       </c>
     </row>
@@ -21814,7 +22618,7 @@
       <c r="Q21" t="s">
         <v>34</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="31">
         <v>86</v>
       </c>
     </row>
@@ -21837,7 +22641,7 @@
       <c r="Q22" t="s">
         <v>18</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="31">
         <v>45</v>
       </c>
     </row>
@@ -21860,7 +22664,7 @@
       <c r="Q23" t="s">
         <v>36</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="31">
         <v>44</v>
       </c>
     </row>
@@ -21883,7 +22687,7 @@
       <c r="Q24" t="s">
         <v>20</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="31">
         <v>8</v>
       </c>
     </row>
@@ -21904,9 +22708,9 @@
         <v>153</v>
       </c>
       <c r="P25" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="R25">
+        <v>84</v>
+      </c>
+      <c r="R25" s="31">
         <v>10860</v>
       </c>
     </row>
@@ -21951,26 +22755,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="efa1766b-290e-4930-94b4-5079da17b09c" xsi:nil="true"/>
-    <CS xmlns="dcec4b07-66e7-4e8f-b2bb-0bd07e3b5177">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </CS>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="dcec4b07-66e7-4e8f-b2bb-0bd07e3b5177">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A7109B3B55D7BD4CB0BB5071BD3EDE6A" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b977184600e28ad2bf08984bbfdd6024">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="efa1766b-290e-4930-94b4-5079da17b09c" xmlns:ns3="dcec4b07-66e7-4e8f-b2bb-0bd07e3b5177" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="79a599c2fa4e3322495a25ac60e5c4cb" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A7109B3B55D7BD4CB0BB5071BD3EDE6A" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7160671c2de88ae39776433864484717">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="efa1766b-290e-4930-94b4-5079da17b09c" xmlns:ns3="dcec4b07-66e7-4e8f-b2bb-0bd07e3b5177" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5a1d51489efd12a4556cd16be870046c" ns2:_="" ns3:_="">
     <xsd:import namespace="efa1766b-290e-4930-94b4-5079da17b09c"/>
     <xsd:import namespace="dcec4b07-66e7-4e8f-b2bb-0bd07e3b5177"/>
     <xsd:element name="properties">
@@ -22257,7 +23043,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -22266,25 +23052,26 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC281514-C9C5-4709-81CC-9AFF927FE8B7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="dcec4b07-66e7-4e8f-b2bb-0bd07e3b5177"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="efa1766b-290e-4930-94b4-5079da17b09c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="efa1766b-290e-4930-94b4-5079da17b09c" xsi:nil="true"/>
+    <CS xmlns="dcec4b07-66e7-4e8f-b2bb-0bd07e3b5177">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </CS>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="dcec4b07-66e7-4e8f-b2bb-0bd07e3b5177">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0C1493E-3805-42E3-971B-2BA89ADB6FB8}">
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ABD0F67-1AFD-42F1-8B17-A35164DDEBB8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -22302,10 +23089,27 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74E3E345-357A-4B7D-86CD-73BE6C38C8D4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC281514-C9C5-4709-81CC-9AFF927FE8B7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="dcec4b07-66e7-4e8f-b2bb-0bd07e3b5177"/>
+    <ds:schemaRef ds:uri="efa1766b-290e-4930-94b4-5079da17b09c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>